--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.91334466666666</v>
+        <v>10.61535666666667</v>
       </c>
       <c r="H2">
-        <v>185.740034</v>
+        <v>31.84607</v>
       </c>
       <c r="I2">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="J2">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N2">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O2">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P2">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q2">
-        <v>269.8758941923102</v>
+        <v>4.938939765707778</v>
       </c>
       <c r="R2">
-        <v>2428.883047730792</v>
+        <v>44.45045789137</v>
       </c>
       <c r="S2">
-        <v>0.1584006088327235</v>
+        <v>0.003744854996336142</v>
       </c>
       <c r="T2">
-        <v>0.1584006088327235</v>
+        <v>0.003744854996336141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.91334466666666</v>
+        <v>10.61535666666667</v>
       </c>
       <c r="H3">
-        <v>185.740034</v>
+        <v>31.84607</v>
       </c>
       <c r="I3">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="J3">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.344147</v>
       </c>
       <c r="O3">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P3">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q3">
-        <v>110.2913383867776</v>
+        <v>18.91000882803222</v>
       </c>
       <c r="R3">
-        <v>992.6220454809979</v>
+        <v>170.19007945229</v>
       </c>
       <c r="S3">
-        <v>0.06473425572790298</v>
+        <v>0.01433814632284117</v>
       </c>
       <c r="T3">
-        <v>0.06473425572790296</v>
+        <v>0.01433814632284117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.91334466666666</v>
+        <v>10.61535666666667</v>
       </c>
       <c r="H4">
-        <v>185.740034</v>
+        <v>31.84607</v>
       </c>
       <c r="I4">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="J4">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N4">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O4">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P4">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q4">
-        <v>475.2592988813928</v>
+        <v>165.7987187064233</v>
       </c>
       <c r="R4">
-        <v>4277.333689932535</v>
+        <v>1492.18846835781</v>
       </c>
       <c r="S4">
-        <v>0.2789480791588647</v>
+        <v>0.1257136530485511</v>
       </c>
       <c r="T4">
-        <v>0.2789480791588647</v>
+        <v>0.1257136530485511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>150.283303</v>
       </c>
       <c r="I5">
-        <v>0.4062381250674705</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="J5">
-        <v>0.4062381250674706</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N5">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O5">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P5">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q5">
-        <v>218.3580992523071</v>
+        <v>23.30712019751922</v>
       </c>
       <c r="R5">
-        <v>1965.222893270764</v>
+        <v>209.764081777673</v>
       </c>
       <c r="S5">
-        <v>0.1281628207981951</v>
+        <v>0.0176721704783494</v>
       </c>
       <c r="T5">
-        <v>0.1281628207981951</v>
+        <v>0.01767217047834939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>150.283303</v>
       </c>
       <c r="I6">
-        <v>0.4062381250674705</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="J6">
-        <v>0.4062381250674706</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.344147</v>
       </c>
       <c r="O6">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P6">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q6">
-        <v>89.23734031972678</v>
+        <v>89.23734031972677</v>
       </c>
       <c r="R6">
-        <v>803.136062877541</v>
+        <v>803.1360628775409</v>
       </c>
       <c r="S6">
-        <v>0.05237684929053005</v>
+        <v>0.06766247729449429</v>
       </c>
       <c r="T6">
-        <v>0.05237684929053005</v>
+        <v>0.06766247729449427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>150.283303</v>
       </c>
       <c r="I7">
-        <v>0.4062381250674705</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="J7">
-        <v>0.4062381250674706</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N7">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O7">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P7">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q7">
-        <v>384.5349636221124</v>
+        <v>782.4129972825276</v>
       </c>
       <c r="R7">
-        <v>3460.814672599011</v>
+        <v>7041.716975542749</v>
       </c>
       <c r="S7">
-        <v>0.2256984549787454</v>
+        <v>0.5932494343048383</v>
       </c>
       <c r="T7">
-        <v>0.2256984549787454</v>
+        <v>0.5932494343048382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.30520233333333</v>
+        <v>13.11220933333333</v>
       </c>
       <c r="H8">
-        <v>33.915607</v>
+        <v>39.336628</v>
       </c>
       <c r="I8">
-        <v>0.09167893121303822</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="J8">
-        <v>0.09167893121303823</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N8">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O8">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P8">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q8">
-        <v>49.27857807003511</v>
+        <v>6.100634592527556</v>
       </c>
       <c r="R8">
-        <v>443.507202630316</v>
+        <v>54.90571133274801</v>
       </c>
       <c r="S8">
-        <v>0.02892350497648439</v>
+        <v>0.004625687499425084</v>
       </c>
       <c r="T8">
-        <v>0.02892350497648439</v>
+        <v>0.004625687499425084</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.30520233333333</v>
+        <v>13.11220933333333</v>
       </c>
       <c r="H9">
-        <v>33.915607</v>
+        <v>39.336628</v>
       </c>
       <c r="I9">
-        <v>0.09167893121303822</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="J9">
-        <v>0.09167893121303823</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>5.344147</v>
       </c>
       <c r="O9">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P9">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q9">
-        <v>20.13888771135878</v>
+        <v>23.35785805736844</v>
       </c>
       <c r="R9">
-        <v>181.249989402229</v>
+        <v>210.220722516316</v>
       </c>
       <c r="S9">
-        <v>0.01182029274693175</v>
+        <v>0.01771064147353727</v>
       </c>
       <c r="T9">
-        <v>0.01182029274693175</v>
+        <v>0.01771064147353727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.30520233333333</v>
+        <v>13.11220933333333</v>
       </c>
       <c r="H10">
-        <v>33.915607</v>
+        <v>39.336628</v>
       </c>
       <c r="I10">
-        <v>0.09167893121303822</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="J10">
-        <v>0.09167893121303823</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N10">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O10">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P10">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q10">
-        <v>86.78100922473644</v>
+        <v>204.7964637593027</v>
       </c>
       <c r="R10">
-        <v>781.029083022628</v>
+        <v>1843.168173833724</v>
       </c>
       <c r="S10">
-        <v>0.05093513348962209</v>
+        <v>0.1552829345816273</v>
       </c>
       <c r="T10">
-        <v>0.05093513348962209</v>
+        <v>0.1552829345816272</v>
       </c>
     </row>
   </sheetData>
